--- a/R/data_refs/refbyhand_gwp.xlsx
+++ b/R/data_refs/refbyhand_gwp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gina\Documents\_git-it\alfalfa\R\data_refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344BFE3-3AF4-41A3-8BE1-27CB0E670015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C8721-BC5E-43D6-A01A-B6D47B94425A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7022F74C-DE69-47CA-908C-A8806D034350}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7022F74C-DE69-47CA-908C-A8806D034350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Different year spans for global warming potential calculations</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>global_warming_potential</t>
+  </si>
+  <si>
+    <t>co2e</t>
+  </si>
+  <si>
+    <t>Including co2e bc that is how FTM reports their values, just easier to have it here for merging</t>
   </si>
 </sst>
 </file>
@@ -440,25 +446,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21947E9-F6C8-4287-A23E-6017B3EDE4F5}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -469,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -480,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -491,7 +502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -502,139 +513,146 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
-      </c>
-      <c r="B13">
-        <v>500</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
-      <c r="C14">
-        <v>7.6</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
       </c>
       <c r="B15">
         <v>500</v>
       </c>
       <c r="C15">
-        <v>153</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>7.6</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>153</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -646,6 +664,30 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
